--- a/questions/optimum_number_of_stories.xlsx
+++ b/questions/optimum_number_of_stories.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/questions/optimum_number_of_stories.xlsx
+++ b/questions/optimum_number_of_stories.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/questions/optimum_number_of_stories.xlsx
+++ b/questions/optimum_number_of_stories.xlsx
@@ -450,7 +450,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>32.37035465141162</v>
+        <v>25.92630350847742</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>30.3793544380658</v>
+        <v>28.61118753589891</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.86477112545441</v>
+        <v>16.46588235294118</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.03023788105947</v>
+        <v>31.04830059387848</v>
       </c>
     </row>
   </sheetData>
